--- a/reports_pdf/brasil/risk-pt/Cases/24-08-2020_brasil_report.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/24-08-2020_brasil_report.xlsx
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>120223</v>
+        <v>120515</v>
       </c>
       <c r="D10" t="n">
-        <v>3559</v>
+        <v>3851</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6281161070005692</v>
+        <v>0.6613545816733067</v>
       </c>
       <c r="F10" t="n">
-        <v>1.083098514793597</v>
+        <v>1.087846868318273</v>
       </c>
       <c r="G10" t="n">
-        <v>31650</v>
+        <v>31942</v>
       </c>
       <c r="H10" t="n">
-        <v>478.7475419754954</v>
+        <v>483.1644229314779</v>
       </c>
       <c r="I10" t="n">
-        <v>34280.06799321733</v>
+        <v>34748.00466782229</v>
       </c>
       <c r="J10" t="n">
-        <v>518.5307516747441</v>
+        <v>525.6089043688139</v>
       </c>
     </row>
     <row r="11">
@@ -1171,28 +1171,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>41770</v>
+        <v>42044</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1835347432024169</v>
+        <v>0.3904833836858006</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7227517360377606</v>
+        <v>0.7523158275353869</v>
       </c>
       <c r="G24" t="n">
-        <v>4764</v>
+        <v>5038</v>
       </c>
       <c r="H24" t="n">
-        <v>941.5019762845849</v>
+        <v>995.6521739130435</v>
       </c>
       <c r="I24" t="n">
-        <v>3443.189270483891</v>
+        <v>3790.167139123279</v>
       </c>
       <c r="J24" t="n">
-        <v>680.4721878426662</v>
+        <v>749.0448891547983</v>
       </c>
     </row>
     <row r="25">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3628800</v>
+        <v>3629366</v>
       </c>
       <c r="D29" t="n">
-        <v>20341</v>
+        <v>20907</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7207518157429824</v>
+        <v>0.7253811424458548</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9440755009730556</v>
+        <v>0.9447368333591802</v>
       </c>
       <c r="G29" t="n">
-        <v>561167</v>
+        <v>561733</v>
       </c>
       <c r="H29" t="n">
-        <v>274.4777426155178</v>
+        <v>274.7545842728504</v>
       </c>
       <c r="I29" t="n">
-        <v>529784.0166545467</v>
+        <v>530689.8556133524</v>
       </c>
       <c r="J29" t="n">
-        <v>259.1277123656984</v>
+        <v>259.5707758968507</v>
       </c>
     </row>
   </sheetData>
